--- a/Weekly_Reports/Weekly_Data/2021 Charts Week 4.xlsx
+++ b/Weekly_Reports/Weekly_Data/2021 Charts Week 4.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
   <si>
     <t>Artist</t>
   </si>
@@ -42,18 +42,36 @@
     <t>Kaskade</t>
   </si>
   <si>
+    <t>Rameses B</t>
+  </si>
+  <si>
+    <t>Matt Nash, Lucas Marx</t>
+  </si>
+  <si>
+    <t>Dirty Palm</t>
+  </si>
+  <si>
     <t>Body Ocean</t>
   </si>
   <si>
     <t>Lady Bee, Dame1</t>
   </si>
   <si>
-    <t>Loot At The Sky</t>
+    <t>Look At The Sky</t>
   </si>
   <si>
     <t>Closer</t>
   </si>
   <si>
+    <t>Samurai</t>
+  </si>
+  <si>
+    <t>Midnight</t>
+  </si>
+  <si>
+    <t>Diamonds</t>
+  </si>
+  <si>
     <t>Once The Music</t>
   </si>
   <si>
@@ -69,6 +87,9 @@
     <t>STMPD RCRDS</t>
   </si>
   <si>
+    <t>NONE</t>
+  </si>
+  <si>
     <t>Mixmash Recorsds</t>
   </si>
   <si>
@@ -79,6 +100,12 @@
   </si>
   <si>
     <t>Soundcloud_Plays</t>
+  </si>
+  <si>
+    <t>Lucas Marx</t>
+  </si>
+  <si>
+    <t>Matt Nash</t>
   </si>
   <si>
     <t>Dame1</t>
@@ -442,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -467,13 +494,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>999107</v>
+        <v>1378335</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -481,13 +508,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>177095</v>
+        <v>210865</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -495,13 +522,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>19405</v>
+        <v>62992</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -509,13 +536,55 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>41797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>1741</v>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>37749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>20803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>1958</v>
       </c>
     </row>
   </sheetData>
@@ -525,7 +594,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -542,78 +611,129 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E2">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
       <c r="E4">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +743,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -648,13 +768,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>67935</v>
+        <v>79423</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -662,13 +782,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>44365</v>
+        <v>51258</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -676,27 +796,69 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>2983</v>
+        <v>33843</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>9312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>2359</v>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>5967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>2924</v>
       </c>
     </row>
   </sheetData>
@@ -706,7 +868,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -725,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>999107</v>
+        <v>1378335</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -733,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>177095</v>
+        <v>210865</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -741,23 +903,55 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>19405</v>
+        <v>62992</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>1741</v>
+        <v>41797</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>1741</v>
+        <v>41797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>37749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>20803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>1958</v>
       </c>
     </row>
   </sheetData>
@@ -767,7 +961,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -778,65 +972,109 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -846,7 +1084,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -857,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -865,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>67935</v>
+        <v>79423</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -873,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>44365</v>
+        <v>51258</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -881,23 +1119,55 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2983</v>
+        <v>33843</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>2359</v>
+        <v>9312</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>2359</v>
+        <v>5967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>5967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>2924</v>
       </c>
     </row>
   </sheetData>
@@ -923,34 +1193,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>999107</v>
+        <v>1378335</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>177095</v>
+        <v>273857</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>19405</v>
+        <v>62600</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>1741</v>
+        <v>1958</v>
       </c>
     </row>
   </sheetData>
@@ -971,54 +1241,54 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1039,39 +1309,39 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>67935</v>
+        <v>85101</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>44365</v>
+        <v>79423</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>2983</v>
+        <v>9444</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>2359</v>
+        <v>2924</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly_Reports/Weekly_Data/2021 Charts Week 4.xlsx
+++ b/Weekly_Reports/Weekly_Data/2021 Charts Week 4.xlsx
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>1378335</v>
+        <v>1493451</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -514,7 +514,7 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>210865</v>
+        <v>225541</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -528,7 +528,7 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>62992</v>
+        <v>66816</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>41797</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -556,7 +556,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>37749</v>
+        <v>39718</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -570,7 +570,7 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>20803</v>
+        <v>21592</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -584,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>1958</v>
+        <v>2112</v>
       </c>
     </row>
   </sheetData>
@@ -628,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -645,24 +645,24 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>11</v>
@@ -670,19 +670,19 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -774,7 +774,7 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>79423</v>
+        <v>83760</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -788,7 +788,7 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>51258</v>
+        <v>53845</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -802,7 +802,7 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>33843</v>
+        <v>35965</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -816,7 +816,7 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>9312</v>
+        <v>9787</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -830,7 +830,7 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>5967</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -844,7 +844,7 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>3477</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -858,7 +858,7 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>2924</v>
+        <v>3201</v>
       </c>
     </row>
   </sheetData>
@@ -887,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1378335</v>
+        <v>1493451</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -895,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>210865</v>
+        <v>225541</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -903,7 +903,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>62992</v>
+        <v>66816</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -911,7 +911,7 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>41797</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -919,7 +919,7 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>41797</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -927,7 +927,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>37749</v>
+        <v>39718</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -935,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>20803</v>
+        <v>21592</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -943,7 +943,7 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>1958</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -951,7 +951,7 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>1958</v>
+        <v>2112</v>
       </c>
     </row>
   </sheetData>
@@ -983,10 +983,10 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -994,10 +994,10 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1005,18 +1005,18 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -1024,13 +1024,13 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>79423</v>
+        <v>83760</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>51258</v>
+        <v>53845</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>33843</v>
+        <v>35965</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>9312</v>
+        <v>9787</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>5967</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>5967</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1151,7 +1151,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>3477</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1159,7 +1159,7 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>2924</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>2924</v>
+        <v>3201</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +1196,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>1378335</v>
+        <v>1493451</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>273857</v>
+        <v>292357</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>62600</v>
+        <v>65652</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>1958</v>
+        <v>2112</v>
       </c>
     </row>
   </sheetData>
@@ -1252,18 +1252,18 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C2">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -1271,13 +1271,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1317,7 +1317,7 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>85101</v>
+        <v>89810</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1325,7 +1325,7 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>79423</v>
+        <v>83760</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1333,7 +1333,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>9444</v>
+        <v>10116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1341,7 +1341,7 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>2924</v>
+        <v>3201</v>
       </c>
     </row>
   </sheetData>
